--- a/OfficeAddIns/ExcelAddIns/BananaAccounting/BananaAccountingExcelAddin_example.xlsx
+++ b/OfficeAddIns/ExcelAddIns/BananaAccounting/BananaAccountingExcelAddin_example.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/GitHub/General/OfficeAddIns/ExcelAddIns/BananaAccounting/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23610" windowHeight="10695"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23620" windowHeight="10700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -308,7 +314,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -818,7 +824,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="1" width="700" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="700" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -842,20 +848,20 @@
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="13.73046875" customWidth="1"/>
-    <col min="5" max="5" width="43.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="13.73046875" customWidth="1"/>
-    <col min="11" max="12" width="11.73046875" customWidth="1"/>
+    <col min="1" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="12" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -863,7 +869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -871,7 +877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -891,7 +897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -911,22 +917,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -937,7 +943,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -948,7 +954,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -971,7 +977,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1017,7 +1023,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1086,7 +1092,7 @@
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1139,7 +1145,7 @@
       <c r="AX16" s="1"/>
       <c r="AY16" s="1"/>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1195,7 +1201,7 @@
       <c r="AX17" s="1"/>
       <c r="AY17" s="1"/>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1251,7 +1257,7 @@
       <c r="AX18" s="1"/>
       <c r="AY18" s="1"/>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1306,7 +1312,7 @@
       <c r="AX19" s="1"/>
       <c r="AY19" s="1"/>
     </row>
-    <row r="20" spans="1:51" ht="21" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:51" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1361,7 +1367,7 @@
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1426,7 +1432,7 @@
       <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -1455,7 +1461,7 @@
         <v>1657 %</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1484,7 +1490,7 @@
         <v>42.7 %</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1513,7 +1519,7 @@
         <v>100 %</v>
       </c>
     </row>
-    <row r="25" spans="1:51" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:51" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>130.7 %</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>0 %</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1600,7 +1606,7 @@
         <v>0 %</v>
       </c>
     </row>
-    <row r="28" spans="1:51" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:51" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -1629,7 +1635,7 @@
         <v>0 %</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1658,7 +1664,7 @@
         <v>0 %</v>
       </c>
     </row>
-    <row r="30" spans="1:51" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:51" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
@@ -1687,7 +1693,7 @@
         <v>0 %</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -1716,7 +1722,7 @@
         <v>0 %</v>
       </c>
     </row>
-    <row r="32" spans="1:51" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:51" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
@@ -1745,7 +1751,7 @@
         <v>0 %</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:10" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
@@ -1774,7 +1780,7 @@
         <v>69 %</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1803,7 +1809,7 @@
         <v>0 %</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -1832,7 +1838,7 @@
         <v>0 %</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -1861,7 +1867,7 @@
         <v>0 %</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>0 %</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>0 %</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:10" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v>0 %</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -1977,7 +1983,7 @@
         <v>0 %</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:10" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>0 %</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>0 %</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" s="18" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>44</v>
       </c>
@@ -2064,12 +2070,12 @@
         <v>14.6 %</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
     </row>
-    <row r="45" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="F45" s="10">
         <f>F9</f>
@@ -2089,7 +2095,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -2118,7 +2124,7 @@
         <v>-133.4</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -2147,7 +2153,7 @@
         <v>-155.19999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:10" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
@@ -2177,7 +2183,7 @@
         <v>-138.79999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -2206,7 +2212,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -2235,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:10" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
@@ -2265,7 +2271,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -2294,7 +2300,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -2323,7 +2329,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:10" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
@@ -2353,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
@@ -2383,7 +2389,7 @@
         <v>-231.4</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" s="18" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>55</v>
       </c>

--- a/OfficeAddIns/ExcelAddIns/BananaAccounting/BananaAccountingExcelAddin_example.xlsx
+++ b/OfficeAddIns/ExcelAddIns/BananaAccounting/BananaAccountingExcelAddin_example.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/GitHub/General/OfficeAddIns/ExcelAddIns/BananaAccounting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\General\OfficeAddIns\ExcelAddIns\BananaAccounting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23620" windowHeight="10700"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="23618" windowHeight="10703"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>QueryStart</t>
   </si>
@@ -300,9 +301,6 @@
   </si>
   <si>
     <t>BALANCE SHEET</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +/- %</t>
   </si>
   <si>
     <t xml:space="preserve"> +/-</t>
@@ -314,11 +312,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +390,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -413,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -430,25 +434,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -473,7 +466,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -485,7 +477,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -498,21 +489,11 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -842,26 +823,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA56"/>
+  <dimension ref="A1:AZ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="12" width="11.6640625" customWidth="1"/>
+    <col min="6" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -869,7 +850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -877,7 +858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -897,7 +878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -917,44 +898,44 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>43466</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>43466</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>43830</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -977,7 +958,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1000,7 +981,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1023,7 +1004,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1090,9 +1071,8 @@
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1143,18 +1123,17 @@
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="8" t="str">
+      <c r="E17" s="6" t="str">
         <f>C12</f>
         <v>Sibex Ltd</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1199,18 +1178,17 @@
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
-    </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="8" t="str">
+      <c r="E18" s="6" t="str">
         <f>C13</f>
         <v>Example of Double-Entry Accounting with VAT</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1255,17 +1233,16 @@
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
-      <c r="AY18" s="1"/>
-    </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <v>2019</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1310,20 +1287,19 @@
       <c r="AV19" s="1"/>
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
-      <c r="AY19" s="1"/>
-    </row>
-    <row r="20" spans="1:51" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:50" ht="21" x14ac:dyDescent="0.65">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1365,31 +1341,28 @@
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
-      <c r="AY20" s="1"/>
-    </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="10">
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="8">
         <f>F9</f>
         <v>43466</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="8">
         <f>G10</f>
         <v>43830</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="I21" s="5" t="s">
         <v>90</v>
       </c>
+      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1430,991 +1403,906 @@
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
-      <c r="AY21" s="1"/>
-    </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A22" s="30" t="s">
         <v>23</v>
       </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="D22">
         <v>1000</v>
       </c>
       <c r="E22" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="14">
         <v>1000</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="14">
         <v>17570</v>
       </c>
-      <c r="H22" s="30" t="str">
+      <c r="H22" s="26" t="str">
         <f>ROUNDUP((G22/$G$43)*100,1)&amp;" %"</f>
         <v>9 %</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="11">
         <f>G22-F22</f>
         <v>16570</v>
       </c>
-      <c r="J22" s="34" t="str">
-        <f>IF(F22&lt;&gt;0,ROUNDUP(((G22-F22)/F22)*100,1),0)&amp;" %"</f>
-        <v>1657 %</v>
-      </c>
-    </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A23" s="30" t="s">
         <v>24</v>
       </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
       <c r="D23">
         <v>1010</v>
       </c>
       <c r="E23" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="14">
         <v>17000</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="14">
         <v>24250</v>
       </c>
-      <c r="H23" s="30" t="str">
+      <c r="H23" s="26" t="str">
         <f t="shared" ref="H23:H43" si="0">ROUNDUP((G23/$G$43)*100,1)&amp;" %"</f>
         <v>12.4 %</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="11">
         <f t="shared" ref="I23:I43" si="1">G23-F23</f>
         <v>7250</v>
       </c>
-      <c r="J23" s="34" t="str">
-        <f t="shared" ref="J23:J43" si="2">IF(F23&lt;&gt;0,ROUNDUP(((G23-F23)/F23)*100,1),0)&amp;" %"</f>
-        <v>42.7 %</v>
-      </c>
-    </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A24" s="30" t="s">
         <v>25</v>
       </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
       <c r="D24">
         <v>1011</v>
       </c>
       <c r="E24" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="14">
         <v>1000</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="14">
         <v>2000</v>
       </c>
-      <c r="H24" s="30" t="str">
+      <c r="H24" s="26" t="str">
         <f t="shared" si="0"/>
         <v>1.1 %</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="11">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="J24" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>100 %</v>
-      </c>
-    </row>
-    <row r="25" spans="1:51" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    </row>
+    <row r="25" spans="1:50" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="5">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31">
         <v>100</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="21">
         <v>19000</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="21">
         <v>43820</v>
       </c>
-      <c r="H25" s="32" t="str">
+      <c r="H25" s="28" t="str">
         <f t="shared" si="0"/>
         <v>22.4 %</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="22">
         <f>G25-F25</f>
         <v>24820</v>
       </c>
-      <c r="J25" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>130.7 %</v>
-      </c>
-    </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A26" s="30" t="s">
         <v>27</v>
       </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
       <c r="D26">
         <v>1100</v>
       </c>
       <c r="E26" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="14">
         <v>10000</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="14">
         <v>10000</v>
       </c>
-      <c r="H26" s="30" t="str">
+      <c r="H26" s="26" t="str">
         <f t="shared" si="0"/>
         <v>5.2 %</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>0 %</v>
-      </c>
-    </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A27" s="30" t="s">
         <v>28</v>
       </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
       <c r="D27">
         <v>1150</v>
       </c>
       <c r="E27" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="16">
-        <v>0</v>
-      </c>
-      <c r="G27" s="16">
-        <v>0</v>
-      </c>
-      <c r="H27" s="30" t="str">
+      <c r="F27" s="14">
+        <v>0</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0</v>
+      </c>
+      <c r="H27" s="26" t="str">
         <f t="shared" si="0"/>
         <v>0 %</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>0 %</v>
-      </c>
-    </row>
-    <row r="28" spans="1:51" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    </row>
+    <row r="28" spans="1:50" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="5">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31">
         <v>110</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="21">
         <v>10000</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="21">
         <v>10000</v>
       </c>
-      <c r="H28" s="32" t="str">
+      <c r="H28" s="28" t="str">
         <f t="shared" si="0"/>
         <v>5.2 %</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J28" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>0 %</v>
-      </c>
-    </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A29" s="30" t="s">
         <v>30</v>
       </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
       <c r="D29">
         <v>1200</v>
       </c>
       <c r="E29" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="14">
         <v>7000</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="14">
         <v>7000</v>
       </c>
-      <c r="H29" s="30" t="str">
+      <c r="H29" s="26" t="str">
         <f t="shared" si="0"/>
         <v>3.6 %</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J29" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>0 %</v>
-      </c>
-    </row>
-    <row r="30" spans="1:51" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    </row>
+    <row r="30" spans="1:50" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="5">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31">
         <v>120</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="21">
         <v>7000</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="21">
         <v>7000</v>
       </c>
-      <c r="H30" s="32" t="str">
+      <c r="H30" s="28" t="str">
         <f t="shared" si="0"/>
         <v>3.6 %</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J30" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>0 %</v>
-      </c>
-    </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A31" s="30" t="s">
         <v>32</v>
       </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
       <c r="D31">
         <v>1300</v>
       </c>
       <c r="E31" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="16">
-        <v>0</v>
-      </c>
-      <c r="G31" s="16">
-        <v>0</v>
-      </c>
-      <c r="H31" s="30" t="str">
+      <c r="F31" s="14">
+        <v>0</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0</v>
+      </c>
+      <c r="H31" s="26" t="str">
         <f t="shared" si="0"/>
         <v>0 %</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J31" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>0 %</v>
-      </c>
-    </row>
-    <row r="32" spans="1:51" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    </row>
+    <row r="32" spans="1:50" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="5">
+      <c r="B32" s="31"/>
+      <c r="C32" s="31">
         <v>130</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="24">
-        <v>0</v>
-      </c>
-      <c r="G32" s="24">
-        <v>0</v>
-      </c>
-      <c r="H32" s="32" t="str">
+      <c r="F32" s="21">
+        <v>0</v>
+      </c>
+      <c r="G32" s="21">
+        <v>0</v>
+      </c>
+      <c r="H32" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0 %</v>
       </c>
-      <c r="I32" s="25">
+      <c r="I32" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J32" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>0 %</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    </row>
+    <row r="33" spans="1:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="5">
+      <c r="B33" s="31"/>
+      <c r="C33" s="31">
         <v>10</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="21">
         <v>36000</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="21">
         <v>60820</v>
       </c>
-      <c r="H33" s="32" t="str">
+      <c r="H33" s="28" t="str">
         <f t="shared" si="0"/>
         <v>31.1 %</v>
       </c>
-      <c r="I33" s="25">
+      <c r="I33" s="22">
         <f>G33-F33</f>
         <v>24820</v>
       </c>
-      <c r="J33" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>69 %</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="30" t="s">
         <v>35</v>
       </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
       <c r="D34">
         <v>1400</v>
       </c>
       <c r="E34" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="14">
         <v>4000</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="14">
         <v>4000</v>
       </c>
-      <c r="H34" s="30" t="str">
+      <c r="H34" s="26" t="str">
         <f t="shared" si="0"/>
         <v>2.1 %</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J34" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>0 %</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="30" t="s">
         <v>36</v>
       </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
       <c r="D35">
         <v>1420</v>
       </c>
       <c r="E35" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="14">
         <v>6000</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="14">
         <v>6000</v>
       </c>
-      <c r="H35" s="30" t="str">
+      <c r="H35" s="26" t="str">
         <f t="shared" si="0"/>
         <v>3.1 %</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J35" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>0 %</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="30" t="s">
         <v>37</v>
       </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
       <c r="D36">
         <v>1430</v>
       </c>
       <c r="E36" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="14">
         <v>10000</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="14">
         <v>10000</v>
       </c>
-      <c r="H36" s="30" t="str">
+      <c r="H36" s="26" t="str">
         <f t="shared" si="0"/>
         <v>5.2 %</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J36" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>0 %</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="30" t="s">
         <v>38</v>
       </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
       <c r="D37">
         <v>1440</v>
       </c>
       <c r="E37" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="14">
         <v>4000</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="14">
         <v>4000</v>
       </c>
-      <c r="H37" s="30" t="str">
+      <c r="H37" s="26" t="str">
         <f t="shared" si="0"/>
         <v>2.1 %</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J37" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>0 %</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="30" t="s">
         <v>39</v>
       </c>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
       <c r="D38">
         <v>1450</v>
       </c>
       <c r="E38" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="14">
         <v>11000</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="14">
         <v>11000</v>
       </c>
-      <c r="H38" s="30" t="str">
+      <c r="H38" s="26" t="str">
         <f t="shared" si="0"/>
         <v>5.7 %</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>0 %</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    </row>
+    <row r="39" spans="1:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="5">
+      <c r="B39" s="31"/>
+      <c r="C39" s="31">
         <v>140</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="21">
         <v>35000</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="21">
         <v>35000</v>
       </c>
-      <c r="H39" s="32" t="str">
+      <c r="H39" s="28" t="str">
         <f t="shared" si="0"/>
         <v>17.9 %</v>
       </c>
-      <c r="I39" s="25">
+      <c r="I39" s="22">
         <f>G39-F39</f>
         <v>0</v>
       </c>
-      <c r="J39" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>0 %</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="30" t="s">
         <v>41</v>
       </c>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
       <c r="D40">
         <v>1500</v>
       </c>
       <c r="E40" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="14">
         <v>100000</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="14">
         <v>100000</v>
       </c>
-      <c r="H40" s="30" t="str">
+      <c r="H40" s="26" t="str">
         <f t="shared" si="0"/>
         <v>51.1 %</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J40" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>0 %</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    </row>
+    <row r="41" spans="1:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="5">
+      <c r="B41" s="31"/>
+      <c r="C41" s="31">
         <v>150</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="21">
         <v>100000</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="21">
         <v>100000</v>
       </c>
-      <c r="H41" s="32" t="str">
+      <c r="H41" s="28" t="str">
         <f t="shared" si="0"/>
         <v>51.1 %</v>
       </c>
-      <c r="I41" s="25">
+      <c r="I41" s="22">
         <f>G41-F41</f>
         <v>0</v>
       </c>
-      <c r="J41" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>0 %</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+    </row>
+    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="5">
+      <c r="B42" s="31"/>
+      <c r="C42" s="31">
         <v>14</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F42" s="27">
+      <c r="F42" s="24">
         <v>135000</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="24">
         <v>135000</v>
       </c>
-      <c r="H42" s="31" t="str">
+      <c r="H42" s="27" t="str">
         <f t="shared" si="0"/>
         <v>69 %</v>
       </c>
-      <c r="I42" s="28">
+      <c r="I42" s="25">
         <f>G42-F42</f>
         <v>0</v>
       </c>
-      <c r="J42" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>0 %</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="18" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+    </row>
+    <row r="43" spans="1:9" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="18">
+      <c r="B43" s="31"/>
+      <c r="C43" s="31">
         <v>1</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="17">
         <v>171000</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G43" s="17">
         <v>195820</v>
       </c>
-      <c r="H43" s="33" t="str">
+      <c r="H43" s="29" t="str">
         <f t="shared" si="0"/>
         <v>100 %</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="18">
         <f t="shared" si="1"/>
         <v>24820</v>
       </c>
-      <c r="J43" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v>14.6 %</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="F45" s="10">
+    </row>
+    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="30"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="30"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="F45" s="8">
         <f>F9</f>
         <v>43466</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="8">
         <f>G10</f>
         <v>43830</v>
       </c>
-      <c r="H45" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I45" s="15" t="s">
+      <c r="H45" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="I45" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="30" t="s">
         <v>45</v>
       </c>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
       <c r="D46">
         <v>2000</v>
       </c>
       <c r="E46" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="14">
         <v>-3000</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="14">
         <v>1000</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="11">
         <f>ROUNDUP((G46/$G$56)*100,1)</f>
         <v>0.6</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="11">
         <f>G46-F46</f>
         <v>4000</v>
       </c>
-      <c r="J46">
-        <f>IF(F46&lt;&gt;0,ROUNDUP(((G46-F46)/F46)*100,1),0)</f>
-        <v>-133.4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="30" t="s">
         <v>46</v>
       </c>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
       <c r="D47">
         <v>2020</v>
       </c>
       <c r="E47" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="14">
         <v>-1000</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="14">
         <v>551.82000000000005</v>
       </c>
-      <c r="H47" s="13">
-        <f t="shared" ref="H47:H56" si="3">ROUNDUP((G47/$G$56)*100,1)</f>
+      <c r="H47" s="11">
+        <f t="shared" ref="H47:H56" si="2">ROUNDUP((G47/$G$56)*100,1)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="I47" s="13">
-        <f t="shared" ref="I47:I56" si="4">G47-F47</f>
+      <c r="I47" s="11">
+        <f t="shared" ref="I47:I56" si="3">G47-F47</f>
         <v>1551.8200000000002</v>
       </c>
-      <c r="J47">
-        <f t="shared" ref="J47:J56" si="5">IF(F47&lt;&gt;0,ROUNDUP(((G47-F47)/F47)*100,1),0)</f>
-        <v>-155.19999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    </row>
+    <row r="48" spans="1:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B48"/>
-      <c r="C48" s="5">
+      <c r="B48" s="31"/>
+      <c r="C48" s="31">
         <v>20</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="21">
         <v>-4000</v>
       </c>
-      <c r="G48" s="24">
+      <c r="G48" s="21">
         <v>1551.82</v>
       </c>
-      <c r="H48" s="25">
+      <c r="H48" s="22">
+        <f t="shared" si="2"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="I48" s="22">
         <f t="shared" si="3"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="I48" s="25">
-        <f t="shared" si="4"/>
         <v>5551.82</v>
       </c>
-      <c r="J48" s="23">
-        <f t="shared" si="5"/>
-        <v>-138.79999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" s="30" t="s">
         <v>48</v>
       </c>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
       <c r="D49">
         <v>2100</v>
       </c>
       <c r="E49" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="14">
         <v>-80000</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="14">
         <v>80000</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="11">
+        <f t="shared" si="2"/>
+        <v>40.9</v>
+      </c>
+      <c r="I49" s="11">
         <f t="shared" si="3"/>
-        <v>40.9</v>
-      </c>
-      <c r="I49" s="13">
-        <f t="shared" si="4"/>
         <v>160000</v>
       </c>
-      <c r="J49">
-        <f t="shared" si="5"/>
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" s="30" t="s">
         <v>49</v>
       </c>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
       <c r="D50">
         <v>2110</v>
       </c>
       <c r="E50" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="16">
-        <v>0</v>
-      </c>
-      <c r="G50" s="16">
-        <v>0</v>
-      </c>
-      <c r="H50" s="13">
+      <c r="F50" s="14">
+        <v>0</v>
+      </c>
+      <c r="G50" s="14">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I50" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+    </row>
+    <row r="51" spans="1:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B51"/>
-      <c r="C51" s="5">
+      <c r="B51" s="31"/>
+      <c r="C51" s="31">
         <v>21</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="21">
         <v>-80000</v>
       </c>
-      <c r="G51" s="24">
+      <c r="G51" s="21">
         <v>80000</v>
       </c>
-      <c r="H51" s="25">
+      <c r="H51" s="22">
+        <f t="shared" si="2"/>
+        <v>40.9</v>
+      </c>
+      <c r="I51" s="22">
         <f t="shared" si="3"/>
-        <v>40.9</v>
-      </c>
-      <c r="I51" s="25">
-        <f t="shared" si="4"/>
         <v>160000</v>
       </c>
-      <c r="J51" s="23">
-        <f t="shared" si="5"/>
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" s="30" t="s">
         <v>51</v>
       </c>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
       <c r="D52">
         <v>2500</v>
       </c>
       <c r="E52" t="s">
         <v>84</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="14">
         <v>-80000</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="14">
         <v>80000</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="11">
+        <f t="shared" si="2"/>
+        <v>40.9</v>
+      </c>
+      <c r="I52" s="11">
         <f t="shared" si="3"/>
-        <v>40.9</v>
-      </c>
-      <c r="I52" s="13">
-        <f t="shared" si="4"/>
         <v>160000</v>
       </c>
-      <c r="J52">
-        <f t="shared" si="5"/>
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" s="30" t="s">
         <v>52</v>
       </c>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
       <c r="D53">
         <v>2530</v>
       </c>
       <c r="E53" t="s">
         <v>85</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F53" s="14">
         <v>-7000</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="14">
         <v>7000</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="11">
+        <f t="shared" si="2"/>
+        <v>3.6</v>
+      </c>
+      <c r="I53" s="11">
         <f t="shared" si="3"/>
-        <v>3.6</v>
-      </c>
-      <c r="I53" s="13">
-        <f t="shared" si="4"/>
         <v>14000</v>
       </c>
-      <c r="J53">
-        <f t="shared" si="5"/>
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+    </row>
+    <row r="54" spans="1:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B54"/>
-      <c r="C54" s="5">
+      <c r="B54" s="31"/>
+      <c r="C54" s="31">
         <v>259</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E54" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F54" s="24">
-        <v>0</v>
-      </c>
-      <c r="G54" s="24">
+      <c r="F54" s="21">
+        <v>0</v>
+      </c>
+      <c r="G54" s="21">
         <v>27268.18</v>
       </c>
-      <c r="H54" s="25">
+      <c r="H54" s="22">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="I54" s="22">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="I54" s="25">
-        <f t="shared" si="4"/>
         <v>27268.18</v>
       </c>
-      <c r="J54" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+    </row>
+    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B55"/>
-      <c r="C55" s="5">
+      <c r="B55" s="31"/>
+      <c r="C55" s="31">
         <v>25</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F55" s="27">
+      <c r="F55" s="24">
         <v>-87000</v>
       </c>
-      <c r="G55" s="27">
+      <c r="G55" s="24">
         <v>114268.18</v>
       </c>
-      <c r="H55" s="28">
+      <c r="H55" s="25">
+        <f t="shared" si="2"/>
+        <v>58.4</v>
+      </c>
+      <c r="I55" s="25">
         <f t="shared" si="3"/>
-        <v>58.4</v>
-      </c>
-      <c r="I55" s="28">
-        <f t="shared" si="4"/>
         <v>201268.18</v>
       </c>
-      <c r="J55" s="29">
-        <f t="shared" si="5"/>
-        <v>-231.4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="18" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+    </row>
+    <row r="56" spans="1:9" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B56"/>
-      <c r="C56" s="18">
+      <c r="B56" s="31"/>
+      <c r="C56" s="31">
         <v>2</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20">
+      <c r="F56" s="17"/>
+      <c r="G56" s="17">
         <v>195820</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H56" s="18">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I56" s="19">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="I56" s="22">
-        <f t="shared" si="4"/>
         <v>195820</v>
-      </c>
-      <c r="J56" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/OfficeAddIns/ExcelAddIns/BananaAccounting/BananaAccountingExcelAddin_example.xlsx
+++ b/OfficeAddIns/ExcelAddIns/BananaAccounting/BananaAccountingExcelAddin_example.xlsx
@@ -1,37 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\General\OfficeAddIns\ExcelAddIns\BananaAccounting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/GitHub/General/OfficeAddIns/ExcelAddIns/BananaAccounting/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="23618" windowHeight="10703"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="107">
   <si>
     <t>QueryStart</t>
   </si>
@@ -307,16 +308,63 @@
   </si>
   <si>
     <t>% of total</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>norepeat</t>
+  </si>
+  <si>
+    <t>budget</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _C_H_F_-;\-* #,##0.00\ _C_H_F_-;_-* &quot;-&quot;??\ _C_H_F_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +444,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -435,10 +490,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -491,9 +547,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -506,6 +565,3215 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t>1000 - Cash</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$17:$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$18:$O$18</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ ;\-#,##0.00\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15070.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17570.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17570.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17570.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17570.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17570.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17570.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17570.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17570.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17570.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17570.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17570.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$17:$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$19:$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ ;\-#,##0.00\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2083314448"/>
+        <c:axId val="-2083312400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2083314448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2083312400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2083312400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2083314448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>1010</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> - Bank 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$17:$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$21:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ ;\-#,##0.00\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2900.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24250.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24250.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24250.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24250.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24250.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24250.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24250.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24250.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24250.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24250.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$17:$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$22:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ ;\-#,##0.00\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2113465792"/>
+        <c:axId val="2113874112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2113465792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2113874112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2113874112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2113465792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>1011</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> - Bank 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$17:$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$24:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ ;\-#,##0.00\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$17:$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$25:$O$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ ;\-#,##0.00\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2113483408"/>
+        <c:axId val="2113380576"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="2113483408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2113380576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2113380576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2113483408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -825,11 +4093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="43.33203125" bestFit="1" customWidth="1"/>
@@ -837,12 +4103,12 @@
     <col min="10" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -850,7 +4116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -858,7 +4124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -878,7 +4144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -898,22 +4164,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -924,7 +4190,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -935,7 +4201,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -958,7 +4224,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -981,7 +4247,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1004,7 +4270,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1072,7 +4338,7 @@
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1124,7 +4390,7 @@
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1179,7 +4445,7 @@
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1234,7 +4500,7 @@
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1288,7 +4554,7 @@
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
     </row>
-    <row r="20" spans="1:50" ht="21" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:50" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1342,7 +4608,7 @@
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1404,7 +4670,7 @@
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
         <v>23</v>
       </c>
@@ -1431,7 +4697,7 @@
         <v>16570</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="30" t="s">
         <v>24</v>
       </c>
@@ -1458,7 +4724,7 @@
         <v>7250</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
         <v>25</v>
       </c>
@@ -1485,7 +4751,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:50" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:50" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>26</v>
       </c>
@@ -1511,7 +4777,7 @@
         <v>24820</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="30" t="s">
         <v>27</v>
       </c>
@@ -1538,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
         <v>28</v>
       </c>
@@ -1565,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:50" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:50" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>29</v>
       </c>
@@ -1591,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A29" s="30" t="s">
         <v>30</v>
       </c>
@@ -1618,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:50" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:50" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>31</v>
       </c>
@@ -1644,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="s">
         <v>32</v>
       </c>
@@ -1671,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:50" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:50" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>33</v>
       </c>
@@ -1697,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:9" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
         <v>34</v>
       </c>
@@ -1723,7 +4989,7 @@
         <v>24820</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="30" t="s">
         <v>35</v>
       </c>
@@ -1750,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="30" t="s">
         <v>36</v>
       </c>
@@ -1777,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
         <v>37</v>
       </c>
@@ -1804,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="30" t="s">
         <v>38</v>
       </c>
@@ -1831,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="30" t="s">
         <v>39</v>
       </c>
@@ -1858,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:9" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>40</v>
       </c>
@@ -1884,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="30" t="s">
         <v>41</v>
       </c>
@@ -1911,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:9" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>42</v>
       </c>
@@ -1937,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="30" t="s">
         <v>43</v>
       </c>
@@ -1963,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>44</v>
       </c>
@@ -1989,14 +5255,14 @@
         <v>24820</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="30"/>
       <c r="B45" s="31"/>
       <c r="C45" s="31"/>
@@ -2015,7 +5281,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="30" t="s">
         <v>45</v>
       </c>
@@ -2042,7 +5308,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="30" t="s">
         <v>46</v>
       </c>
@@ -2069,7 +5335,7 @@
         <v>1551.8200000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:9" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>47</v>
       </c>
@@ -2095,7 +5361,7 @@
         <v>5551.82</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="30" t="s">
         <v>48</v>
       </c>
@@ -2122,7 +5388,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="30" t="s">
         <v>49</v>
       </c>
@@ -2149,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:9" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>50</v>
       </c>
@@ -2175,7 +5441,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="30" t="s">
         <v>51</v>
       </c>
@@ -2202,7 +5468,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="30" t="s">
         <v>52</v>
       </c>
@@ -2229,7 +5495,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:9" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>53</v>
       </c>
@@ -2255,7 +5521,7 @@
         <v>27268.18</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="30" t="s">
         <v>54</v>
       </c>
@@ -2281,7 +5547,7 @@
         <v>201268.18</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>55</v>
       </c>
@@ -2309,4 +5575,819 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="15" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N7" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43466</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43497</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43525</v>
+      </c>
+      <c r="G9" s="2">
+        <v>43556</v>
+      </c>
+      <c r="H9" s="2">
+        <v>43586</v>
+      </c>
+      <c r="I9" s="2">
+        <v>43617</v>
+      </c>
+      <c r="J9" s="2">
+        <v>43647</v>
+      </c>
+      <c r="K9" s="2">
+        <v>43678</v>
+      </c>
+      <c r="L9" s="2">
+        <v>43709</v>
+      </c>
+      <c r="M9" s="2">
+        <v>43739</v>
+      </c>
+      <c r="N9" s="2">
+        <v>43770</v>
+      </c>
+      <c r="O9" s="2">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43496</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43524</v>
+      </c>
+      <c r="F10" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G10" s="2">
+        <v>43585</v>
+      </c>
+      <c r="H10" s="2">
+        <v>43616</v>
+      </c>
+      <c r="I10" s="2">
+        <v>43646</v>
+      </c>
+      <c r="J10" s="2">
+        <v>43677</v>
+      </c>
+      <c r="K10" s="2">
+        <v>43708</v>
+      </c>
+      <c r="L10" s="2">
+        <v>43738</v>
+      </c>
+      <c r="M10" s="2">
+        <v>43769</v>
+      </c>
+      <c r="N10" s="2">
+        <v>43799</v>
+      </c>
+      <c r="O10" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="33">
+        <v>15070</v>
+      </c>
+      <c r="E18" s="33">
+        <v>17570</v>
+      </c>
+      <c r="F18" s="33">
+        <v>17570</v>
+      </c>
+      <c r="G18" s="33">
+        <v>17570</v>
+      </c>
+      <c r="H18" s="33">
+        <v>17570</v>
+      </c>
+      <c r="I18" s="33">
+        <v>17570</v>
+      </c>
+      <c r="J18" s="33">
+        <v>17570</v>
+      </c>
+      <c r="K18" s="33">
+        <v>17570</v>
+      </c>
+      <c r="L18" s="33">
+        <v>17570</v>
+      </c>
+      <c r="M18" s="33">
+        <v>17570</v>
+      </c>
+      <c r="N18" s="33">
+        <v>17570</v>
+      </c>
+      <c r="O18" s="33">
+        <v>17570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="33">
+        <v>9000</v>
+      </c>
+      <c r="E19" s="33">
+        <v>17000</v>
+      </c>
+      <c r="F19" s="33">
+        <v>25000</v>
+      </c>
+      <c r="G19" s="33">
+        <v>33000</v>
+      </c>
+      <c r="H19" s="33">
+        <v>41000</v>
+      </c>
+      <c r="I19" s="33">
+        <v>49000</v>
+      </c>
+      <c r="J19" s="33">
+        <v>57000</v>
+      </c>
+      <c r="K19" s="33">
+        <v>65000</v>
+      </c>
+      <c r="L19" s="33">
+        <v>73000</v>
+      </c>
+      <c r="M19" s="33">
+        <v>81000</v>
+      </c>
+      <c r="N19" s="33">
+        <v>89000</v>
+      </c>
+      <c r="O19" s="33">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="33">
+        <v>2900</v>
+      </c>
+      <c r="E21" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F21" s="33">
+        <v>24250</v>
+      </c>
+      <c r="G21" s="33">
+        <v>24250</v>
+      </c>
+      <c r="H21" s="33">
+        <v>24250</v>
+      </c>
+      <c r="I21" s="33">
+        <v>24250</v>
+      </c>
+      <c r="J21" s="33">
+        <v>24250</v>
+      </c>
+      <c r="K21" s="33">
+        <v>24250</v>
+      </c>
+      <c r="L21" s="33">
+        <v>24250</v>
+      </c>
+      <c r="M21" s="33">
+        <v>24250</v>
+      </c>
+      <c r="N21" s="33">
+        <v>24250</v>
+      </c>
+      <c r="O21" s="33">
+        <v>24250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="33">
+        <v>16000</v>
+      </c>
+      <c r="E22" s="33">
+        <v>15000</v>
+      </c>
+      <c r="F22" s="33">
+        <v>14000</v>
+      </c>
+      <c r="G22" s="33">
+        <v>13000</v>
+      </c>
+      <c r="H22" s="33">
+        <v>12000</v>
+      </c>
+      <c r="I22" s="33">
+        <v>11000</v>
+      </c>
+      <c r="J22" s="33">
+        <v>10000</v>
+      </c>
+      <c r="K22" s="33">
+        <v>9000</v>
+      </c>
+      <c r="L22" s="33">
+        <v>8000</v>
+      </c>
+      <c r="M22" s="33">
+        <v>7000</v>
+      </c>
+      <c r="N22" s="33">
+        <v>6000</v>
+      </c>
+      <c r="O22" s="33">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="33">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="33">
+        <v>1500</v>
+      </c>
+      <c r="F24" s="33">
+        <v>2000</v>
+      </c>
+      <c r="G24" s="33">
+        <v>2000</v>
+      </c>
+      <c r="H24" s="33">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="33">
+        <v>2000</v>
+      </c>
+      <c r="J24" s="33">
+        <v>2000</v>
+      </c>
+      <c r="K24" s="33">
+        <v>2000</v>
+      </c>
+      <c r="L24" s="33">
+        <v>2000</v>
+      </c>
+      <c r="M24" s="33">
+        <v>2000</v>
+      </c>
+      <c r="N24" s="33">
+        <v>2000</v>
+      </c>
+      <c r="O24" s="33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A25" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="33">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="33">
+        <v>1000</v>
+      </c>
+      <c r="F25" s="33">
+        <v>1000</v>
+      </c>
+      <c r="G25" s="33">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="33">
+        <v>1000</v>
+      </c>
+      <c r="I25" s="33">
+        <v>1000</v>
+      </c>
+      <c r="J25" s="33">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="33">
+        <v>1000</v>
+      </c>
+      <c r="L25" s="33">
+        <v>1000</v>
+      </c>
+      <c r="M25" s="33">
+        <v>1000</v>
+      </c>
+      <c r="N25" s="33">
+        <v>1000</v>
+      </c>
+      <c r="O25" s="33">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>